--- a/options-phase.xlsx
+++ b/options-phase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -30,21 +30,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>direction</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
-    <t>"horizontal"</t>
-  </si>
-  <si>
-    <t>Accepts "horizontal" or "vertical". Determines the slices will be laid out as horizontal rows or vertical columns.</t>
-  </si>
-  <si>
-    <t>numOfSlices</t>
-  </si>
-  <si>
     <t>sliceDuration</t>
   </si>
   <si>
@@ -54,84 +42,15 @@
     <t>transitionOrder</t>
   </si>
   <si>
-    <t>String /| Array</t>
-  </si>
-  <si>
-    <t>startPosition</t>
-  </si>
-  <si>
-    <t>halfwayPostion</t>
-  </si>
-  <si>
-    <t>"left"</t>
-  </si>
-  <si>
-    <t>"middle"</t>
-  </si>
-  <si>
-    <t>endPosition</t>
-  </si>
-  <si>
-    <t>curPosition</t>
-  </si>
-  <si>
-    <t>matches startPosition</t>
-  </si>
-  <si>
-    <t>startColor</t>
-  </si>
-  <si>
-    <t>halfwayColor</t>
-  </si>
-  <si>
-    <t>endColor</t>
-  </si>
-  <si>
     <t>"standard"</t>
   </si>
   <si>
     <t>"#ffffff"</t>
   </si>
   <si>
-    <t>The number of slices</t>
-  </si>
-  <si>
-    <t>Number (Integer)</t>
-  </si>
-  <si>
     <t>Number (Float)</t>
   </si>
   <si>
-    <t>The transition duration for a single slice</t>
-  </si>
-  <si>
-    <t>The transition duration of the entire animation</t>
-  </si>
-  <si>
-    <t>Accepts "standard", "random", "reverse", or an Array. Determines the order in which the slices will animate</t>
-  </si>
-  <si>
-    <t>Accepts "top", "bottom", "right", "left", or "middle". Determines the position the slices to animate to for the start phase.</t>
-  </si>
-  <si>
-    <t>Accepts "top", "bottom", "right", "left", or "middle". Determines the position the slices to animate to for the halfway phase.</t>
-  </si>
-  <si>
-    <t>Accepts "top", "bottom", "right", "left", or "middle". Determines the position the slices to animate to for the end phase.</t>
-  </si>
-  <si>
-    <t>Accepts "top", "bottom", "right", "left", or "middle". Determines the position the slices will be in when the instance is created with `sliceRevealer()`</t>
-  </si>
-  <si>
-    <t>Accepts a [CSS Color Value](https://www.w3schools.com/cssref/css_colors_legal.asp) Determines the color the slices will be in for the end phase.</t>
-  </si>
-  <si>
-    <t>Accepts a [CSS Color Value](https://www.w3schools.com/cssref/css_colors_legal.asp) Determines the color the slices will be in for the halfway phase.</t>
-  </si>
-  <si>
-    <t>Accepts a [CSS Color Value](https://www.w3schools.com/cssref/css_colors_legal.asp) Determines the color the slices will be in for the start phase.</t>
-  </si>
-  <si>
     <t>Example</t>
   </si>
   <si>
@@ -141,37 +60,49 @@
     <t>queueAnimation</t>
   </si>
   <si>
-    <t>startOptions</t>
-  </si>
-  <si>
-    <t>halfwayOptions</t>
-  </si>
-  <si>
-    <t>endOptions</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
     <t>Boolean</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
     <t>If true then firing an animation while an animation is already playing will queue the second animation behind the first one and fire when the first one finishes. You can only have one queued animation per instance at a time. Queuing a new one will replace the current one.</t>
   </si>
   <si>
-    <t>Accepts an Object that will pass options whenever you animate to the start phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options-phase) section.</t>
-  </si>
-  <si>
-    <t>Accepts an Object that will pass options whenever you animate to the halfway phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options-phase) section.</t>
-  </si>
-  <si>
-    <t>Accepts an Object that will pass options whenever you animate to the end phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options-phase) section.</t>
+    <t>The transition duration for a single slice.</t>
+  </si>
+  <si>
+    <t>The transition duration of the entire animation.</t>
+  </si>
+  <si>
+    <t>String \| Array</t>
+  </si>
+  <si>
+    <t>Accepts "standard", "random", "reverse", or an Array. Determines the order in which the slices will animate.</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Accepts a [CSS Color Value](https://www.w3schools.com/cssref/css_colors_legal.asp) Determines the color the slices will be in throughout the animation.</t>
+  </si>
+  <si>
+    <t>startCB</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>doneCB</t>
+  </si>
+  <si>
+    <t>Callback function that runs once the animation starts</t>
+  </si>
+  <si>
+    <t>Callback function that runs once the animation has finished</t>
   </si>
 </sst>
 </file>
@@ -511,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -545,274 +476,121 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
       <c r="C5">
         <v>1.6</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/options-phase.xlsx
+++ b/options-phase.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -533,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>

--- a/options-phase.xlsx
+++ b/options-phase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Callback function that runs once the animation has finished</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +522,7 @@
         <v>0.8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -536,7 +539,7 @@
         <v>1.3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -553,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -570,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -587,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>

--- a/options-phase.xlsx
+++ b/options-phase.xlsx
@@ -54,9 +54,6 @@
     <t>Example</t>
   </si>
   <si>
-    <t>[CodePen]()</t>
-  </si>
-  <si>
     <t>queueAnimation</t>
   </si>
   <si>
@@ -102,10 +99,13 @@
     <t>Callback function that runs once the animation starts</t>
   </si>
   <si>
-    <t>Callback function that runs once the animation has finished</t>
-  </si>
-  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Callback function that runs once the animation has fully completed. Does not run if animation is replaced by another `goPhase()` call.</t>
+  </si>
+  <si>
+    <t>[CodePen](https://codepen.io/maiCoding/pen/JexvLW)</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,33 +479,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -522,10 +522,10 @@
         <v>0.8</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -539,10 +539,10 @@
         <v>1.3</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -550,21 +550,21 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -573,27 +573,27 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/options-phase.xlsx
+++ b/options-phase.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C6" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/options-phase.xlsx
+++ b/options-phase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Example</t>
   </si>
   <si>
-    <t>[CodePen]()</t>
-  </si>
-  <si>
     <t>queueAnimation</t>
   </si>
   <si>
@@ -102,7 +99,13 @@
     <t>Callback function that runs once the animation starts</t>
   </si>
   <si>
-    <t>Callback function that runs once the animation has finished</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Callback function that runs once the animation has fully completed. Does not run if animation is replaced by another `goPhase()` call.</t>
+  </si>
+  <si>
+    <t>[CodePen](https://codepen.io/maiCoding/pen/JexvLW)</t>
   </si>
 </sst>
 </file>
@@ -444,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,33 +479,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -519,10 +522,10 @@
         <v>0.8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,10 +539,10 @@
         <v>1.3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -547,21 +550,21 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -570,27 +573,27 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
